--- a/data/trans_camb/P0902-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.8371612253283707</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.9327825915337963</v>
+        <v>-0.9327825915337966</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.642522857947475</v>
+        <v>-1.416850454835012</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.271096861097492</v>
+        <v>-2.270881663768312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.008194097260661</v>
+        <v>-3.88338992125956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.763400560604295</v>
+        <v>-2.667025199128026</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.984750602612418</v>
+        <v>-3.57049505742639</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.698881836004508</v>
+        <v>-2.733441945612795</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.410678327045072</v>
+        <v>-1.305327076949975</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.339668291654188</v>
+        <v>-2.302732227679316</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.6536347141053</v>
+        <v>-2.67588981486052</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.426518661722562</v>
+        <v>2.603211446059947</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.489258132878242</v>
+        <v>1.469295765593728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.161061294464782</v>
+        <v>-1.024976643544741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.795010356039427</v>
+        <v>2.973150565550044</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.134681679981248</v>
+        <v>1.40663949791505</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.656285001796896</v>
+        <v>5.414221427932858</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.903541022154532</v>
+        <v>1.968881174484502</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8301465127467091</v>
+        <v>0.8213820760133017</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.274459494825845</v>
+        <v>1.583175877882327</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2587737408363832</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2883311282167625</v>
+        <v>-0.2883311282167626</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5112697193649901</v>
+        <v>-0.4674796451830893</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7451487109886815</v>
+        <v>-0.7406567315711253</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.497966621028089</v>
+        <v>-0.4786337394098826</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6844445374360076</v>
+        <v>-0.6646707944310009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5737150455868842</v>
+        <v>-0.5370740132373741</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3338192463237005</v>
+        <v>-0.3318543184158555</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5808747253580271</v>
+        <v>-0.5928117314618796</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.708953651942705</v>
+        <v>-0.7132282048427263</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.755402076880858</v>
+        <v>2.069967279025966</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.215731934936035</v>
+        <v>1.216082589785198</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.9588596799527849</v>
+        <v>1.008508233477398</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4149079749602314</v>
+        <v>0.5507717538747372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.928152538186453</v>
+        <v>1.736230887009369</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.792893967833022</v>
+        <v>0.7892454972654386</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3603487381582028</v>
+        <v>0.3271804201487004</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5466721626737485</v>
+        <v>0.6798451211302762</v>
       </c>
     </row>
     <row r="10">
@@ -874,7 +874,7 @@
         <v>-0.235732355806547</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.309341723393572</v>
+        <v>1.309341723393571</v>
       </c>
     </row>
     <row r="11">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.107081671961044</v>
+        <v>-1.160950368518301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9718995609339297</v>
+        <v>-1.094473223987666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.201459396789612</v>
+        <v>1.45463992655817</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.160268906725257</v>
+        <v>-4.94802444523077</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.62962153288489</v>
+        <v>-4.635123424277135</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.572993977340801</v>
+        <v>-4.726386287521165</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.954031077258462</v>
+        <v>-2.253006465739202</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.977470026514768</v>
+        <v>-1.963586248878713</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6717921220998571</v>
+        <v>-0.7548350589687538</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.681134527414243</v>
+        <v>2.323434419670186</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.85530861532808</v>
+        <v>3.022559253689225</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.377023917686497</v>
+        <v>7.646333094245422</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8025888140431801</v>
+        <v>0.6865127681608891</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9499936886721587</v>
+        <v>1.26686710980268</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.064609039942943</v>
+        <v>1.102175495108501</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.183065069684595</v>
+        <v>1.027215316929011</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.389681779587257</v>
+        <v>1.518956888286708</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.44609939022116</v>
+        <v>3.39834638553719</v>
       </c>
     </row>
     <row r="13">
@@ -970,7 +970,7 @@
         <v>-0.2426867181906526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2642350942687791</v>
+        <v>-0.2642350942687792</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1178703913895752</v>
@@ -979,7 +979,7 @@
         <v>-0.05135883049540188</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2852652933546096</v>
+        <v>0.2852652933546094</v>
       </c>
     </row>
     <row r="14">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3398061420074511</v>
+        <v>-0.3525484163665997</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3214114043444498</v>
+        <v>-0.36441405938715</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2544042288802774</v>
+        <v>0.3724395606726256</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5855566255655066</v>
+        <v>-0.5728194738601344</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5539353188888878</v>
+        <v>-0.5345847991087089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.558647692614247</v>
+        <v>-0.5749731303607852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3802744561909748</v>
+        <v>-0.4163349205538809</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3687919085261726</v>
+        <v>-0.3628938135174998</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1238389361539464</v>
+        <v>-0.1664414918007687</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.486906174558705</v>
+        <v>1.248325847008816</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.512001824442194</v>
+        <v>1.541364611272434</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.881749869877193</v>
+        <v>4.034964740059176</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1592831962554974</v>
+        <v>0.1434002866648379</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1996898713310422</v>
+        <v>0.2577475459805011</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1895450103362082</v>
+        <v>0.2094007288073387</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3347976597036703</v>
+        <v>0.2669941901868963</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4008812288231495</v>
+        <v>0.3715992531620533</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.855765692152459</v>
+        <v>0.8966683951975837</v>
       </c>
     </row>
     <row r="16">
@@ -1088,7 +1088,7 @@
         <v>-0.7441442037792838</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.424595611197593</v>
+        <v>1.424595611197595</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.17187270991552</v>
+        <v>-1.024981421562106</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.975440842828013</v>
+        <v>-2.830034727761861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.098373070565119</v>
+        <v>-1.15618112860238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3764370393714803</v>
+        <v>-0.3238476385569558</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.765823262984408</v>
+        <v>-3.52734439589458</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.403182634854851</v>
+        <v>-1.609540821491044</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07392822618033876</v>
+        <v>0.182359869159306</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.761545055531027</v>
+        <v>-2.633908744333666</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.5194094710545678</v>
+        <v>-0.8370159914598897</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.814607297011548</v>
+        <v>3.828103700362008</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.669077886739545</v>
+        <v>1.658449256058909</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.105660825138787</v>
+        <v>4.036713205056815</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.243226103892026</v>
+        <v>6.374694656523857</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.154699613770859</v>
+        <v>2.342000196321908</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.638094912400568</v>
+        <v>4.409224003010237</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.261151864914047</v>
+        <v>4.206392748770988</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.114757566979611</v>
+        <v>1.299385851573038</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.499881430229221</v>
+        <v>3.385047493591556</v>
       </c>
     </row>
     <row r="19">
@@ -1193,7 +1193,7 @@
         <v>-0.1124964878467618</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2153641754484116</v>
+        <v>0.2153641754484118</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2088537038142245</v>
+        <v>-0.1779180387750276</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4964151583764833</v>
+        <v>-0.4780194653372784</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1993232739615763</v>
+        <v>-0.2172374298913199</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04156311240890091</v>
+        <v>-0.04216414625737899</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3604104277903294</v>
+        <v>-0.3617610948483955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1506353685672799</v>
+        <v>-0.1560215160245322</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007164660549421985</v>
+        <v>0.01651712882848067</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3565815834744836</v>
+        <v>-0.3548826696422742</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.07451633454789817</v>
+        <v>-0.1072285670112461</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.063603987234672</v>
+        <v>1.163825930447269</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4953625488228369</v>
+        <v>0.4756341867100699</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.141422673276895</v>
+        <v>1.149201597806934</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9315878725131105</v>
+        <v>0.9027318640422368</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3169214959324188</v>
+        <v>0.3519332811925265</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6778863990692745</v>
+        <v>0.637343441944648</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7612222802290163</v>
+        <v>0.7444934750201053</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.195116159808275</v>
+        <v>0.2291783671027678</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6164600793871062</v>
+        <v>0.6029445631963257</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1284,7 @@
         <v>2.377375985713194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.261766034634891</v>
+        <v>6.261766034634888</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.613119533078723</v>
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.144802592343293</v>
+        <v>-2.00258631973839</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9724377200705323</v>
+        <v>-0.7530568973543783</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.836803766342251</v>
+        <v>2.976400233917406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.608207502111208</v>
+        <v>-1.548024758364227</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.107961871615685</v>
+        <v>-4.279994088115258</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.638822226225976</v>
+        <v>-2.036823308117061</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8192476764289521</v>
+        <v>-0.8643876330012173</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.379278331293081</v>
+        <v>-1.644423028560083</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.471872107605458</v>
+        <v>1.597693462822963</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.436110830640155</v>
+        <v>4.585156337651224</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.542089012030339</v>
+        <v>5.749113358381167</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.04190358473884</v>
+        <v>10.04028404717556</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.869999577600922</v>
+        <v>6.810441099112224</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.174822389619258</v>
+        <v>3.947121870439375</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.508409764814078</v>
+        <v>5.051947143071653</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.679228374900308</v>
+        <v>4.548701805104942</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.849888288168307</v>
+        <v>3.667392263301032</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.538634951494347</v>
+        <v>6.599735609464012</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
         <v>0.3505705752110777</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9233671635412785</v>
+        <v>0.9233671635412781</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2039757099022775</v>
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2576215598731689</v>
+        <v>-0.2471906533855007</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1224274622766786</v>
+        <v>-0.09610818975561863</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3469246584225332</v>
+        <v>0.3201242254451708</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1028891929729978</v>
+        <v>-0.1069063189767274</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2638024441384537</v>
+        <v>-0.2883720092908642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1090221662052775</v>
+        <v>-0.1309358798367678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07271087776537137</v>
+        <v>-0.07515609219921036</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1244196446623182</v>
+        <v>-0.1420772934208211</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1399993358978498</v>
+        <v>0.1460742188848209</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9086821755031163</v>
+        <v>0.8735581219890457</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.10991010494716</v>
+        <v>1.037143142025339</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.943686252068536</v>
+        <v>1.872585668796064</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6515022837559268</v>
+        <v>0.6135024170129271</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3820758173394925</v>
+        <v>0.3667169598431421</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5296598896634493</v>
+        <v>0.4739560418989281</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5766353240999207</v>
+        <v>0.5326084188746738</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4615076216874071</v>
+        <v>0.4333176510144488</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8100623467444544</v>
+        <v>0.7921546504018256</v>
       </c>
     </row>
     <row r="28">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.765978144028832</v>
+        <v>-2.490889099679155</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.546393144712323</v>
+        <v>-6.249205405806096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03456664212523727</v>
+        <v>0.1568641853299409</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.357139759616845</v>
+        <v>6.327320360188507</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.629388323618581</v>
+        <v>2.356400018537918</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.202651916975112</v>
+        <v>2.512354271552573</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.424511234011323</v>
+        <v>3.498161391330309</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5354058311299873</v>
+        <v>-0.2230838589930344</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.981423866166023</v>
+        <v>2.836782483091436</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.941094964499126</v>
+        <v>6.47583433960696</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.104459069332736</v>
+        <v>2.915268095675978</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.12916865244493</v>
+        <v>9.77072539647159</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.69262636379358</v>
+        <v>17.5771946971117</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.76902478668535</v>
+        <v>13.04241487789321</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.2099206049715</v>
+        <v>11.8000425720061</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.0335158628103</v>
+        <v>10.82685797162299</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.621338905584241</v>
+        <v>7.019371480602755</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.479587951445495</v>
+        <v>9.004767070480213</v>
       </c>
     </row>
     <row r="31">
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.165684442279791</v>
+        <v>-0.1658801365766622</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3906602788732697</v>
+        <v>-0.3915231544076969</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.000597811492660723</v>
+        <v>0.003758354306138681</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3510280534902671</v>
+        <v>0.334723918676046</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1482911913365525</v>
+        <v>0.1270224814441459</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1696464903707411</v>
+        <v>0.1376993596187282</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.20856072291246</v>
+        <v>0.2232814886750892</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.03487304103356254</v>
+        <v>-0.01906639915506127</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1791992174632013</v>
+        <v>0.1650659945129358</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6285677922864825</v>
+        <v>0.5534943577273395</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2721014388626854</v>
+        <v>0.2618244775695972</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9282616477797314</v>
+        <v>0.9292524373472378</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.366991148666088</v>
+        <v>1.345983664967134</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.127273192855869</v>
+        <v>1.003055880549454</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9541380542120285</v>
+        <v>0.9324887881247566</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8429161970251381</v>
+        <v>0.8505056649249995</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4985681655500811</v>
+        <v>0.5314272453789136</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7639203596287275</v>
+        <v>0.7082689958252253</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1712,7 @@
         <v>0.2135757175808356</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.1550334195021902</v>
+        <v>-0.155033419502193</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>7.495301562906204</v>
@@ -1721,7 +1721,7 @@
         <v>2.999747593461688</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.9458288977032048</v>
+        <v>-0.9458288977032103</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>7.306809146908424</v>
@@ -1730,7 +1730,7 @@
         <v>1.5731910818231</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.8218190796840691</v>
+        <v>-0.8218190796840719</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.0384682917003131</v>
+        <v>0.5041781356604736</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.564885643209458</v>
+        <v>-5.996477020545039</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.826119080369335</v>
+        <v>-5.232364559697024</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.8658349232708202</v>
+        <v>0.6534051849387351</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.771015348192948</v>
+        <v>-4.668200191753328</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.096274367235949</v>
+        <v>-6.671843173220071</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.097732560794662</v>
+        <v>2.649134308351384</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.739709358181615</v>
+        <v>-3.058237783574145</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.667646901209658</v>
+        <v>-5.105692274066228</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.52505912597838</v>
+        <v>13.37564091442094</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.036870184702265</v>
+        <v>5.67902064922973</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.822844828237365</v>
+        <v>4.723392843619589</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.05130724945875</v>
+        <v>14.42777688211461</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.768701656471938</v>
+        <v>9.178956816107441</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.577874227445493</v>
+        <v>4.377573721658615</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.12428537854339</v>
+        <v>11.89851759148534</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.904293033643122</v>
+        <v>6.451758685784487</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.542692380516028</v>
+        <v>2.85785128498546</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1817,7 @@
         <v>0.01302143944591108</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.00945219010385029</v>
+        <v>-0.00945219010385046</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2550193870745223</v>
@@ -1826,7 +1826,7 @@
         <v>0.1020631106357056</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.03218078735662217</v>
+        <v>-0.03218078735662236</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3121095869925354</v>
@@ -1835,7 +1835,7 @@
         <v>0.06719869219738651</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.03510391586610781</v>
+        <v>-0.03510391586610793</v>
       </c>
     </row>
     <row r="38">
@@ -1846,31 +1846,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0140088032773059</v>
+        <v>0.003841801538035848</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3503790284985714</v>
+        <v>-0.3132862717631727</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2995577051805229</v>
+        <v>-0.2757205579425854</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.02344413004447374</v>
+        <v>0.01877821943178765</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1151465890849665</v>
+        <v>-0.1407944195828107</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2121500038207811</v>
+        <v>-0.2053086353169265</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07398645828270936</v>
+        <v>0.1095031972288747</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1074532380674872</v>
+        <v>-0.1160885369035315</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1799087592373845</v>
+        <v>-0.1945053682912751</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1881,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.952319336057083</v>
+        <v>0.9807628006548711</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4489654367258488</v>
+        <v>0.4351790472796392</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3786563461635137</v>
+        <v>0.3711633590820843</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5902467872354867</v>
+        <v>0.5459779209066853</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3775147556992143</v>
+        <v>0.357759977922346</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1774941073085513</v>
+        <v>0.1687026188042278</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5720387571800595</v>
+        <v>0.567366000422069</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2775327104816011</v>
+        <v>0.3041899878612019</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1682077599895453</v>
+        <v>0.1377424021621007</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1926,7 @@
         <v>-0.8856715926020997</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.544192486974222</v>
+        <v>-1.544192486974216</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>17.08108354242147</v>
@@ -1935,7 +1935,7 @@
         <v>11.24858086445918</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>12.39449008843604</v>
+        <v>12.39449008843602</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>14.38964953858153</v>
@@ -1944,7 +1944,7 @@
         <v>6.459241899824159</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>6.693225065457153</v>
+        <v>6.693225065457148</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.350943146279976</v>
+        <v>2.175457267843719</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.128526432648854</v>
+        <v>-9.909329297788537</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.059928635883916</v>
+        <v>-9.290868917714597</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9.281105796233508</v>
+        <v>9.216189101384229</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>3.410725241152518</v>
+        <v>3.141136614811978</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.631776955960458</v>
+        <v>5.619712704124596</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.211512991636493</v>
+        <v>8.289284234239632</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.2377084258906652</v>
+        <v>1.018296797420607</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.375169303394817</v>
+        <v>1.445327328336452</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.71364504839734</v>
+        <v>19.97270580486047</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.016172724310492</v>
+        <v>6.736449927991309</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.834493988413369</v>
+        <v>5.989321307168271</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>24.27653786077675</v>
+        <v>25.28023236898804</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>19.15728314188984</v>
+        <v>18.94321613081073</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>18.98019158775221</v>
+        <v>18.87613920685457</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>20.42409419482082</v>
+        <v>20.11869008020976</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.18080596370716</v>
+        <v>12.67672248012789</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.35055005550211</v>
+        <v>11.51509445689127</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2031,7 @@
         <v>-0.02598069952455627</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.04529805556288023</v>
+        <v>-0.04529805556288007</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.3999707394889694</v>
@@ -2040,7 +2040,7 @@
         <v>0.2633968269861527</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2902294432287333</v>
+        <v>0.2902294432287328</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3654023439645078</v>
@@ -2049,7 +2049,7 @@
         <v>0.1640222108329519</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.16996384248571</v>
+        <v>0.1699638424857098</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.0267075170540538</v>
+        <v>0.04853501126053464</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2452836363594127</v>
+        <v>-0.2543769451633565</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2323748535220916</v>
+        <v>-0.2403977429017328</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1924389352688195</v>
+        <v>0.1995067839582016</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08236772045152502</v>
+        <v>0.0689453592362612</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1154111208725171</v>
+        <v>0.1169072012412666</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1989636134506523</v>
+        <v>0.1978521667802335</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.005283570830189755</v>
+        <v>0.02327055235928164</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.03057761704836033</v>
+        <v>0.03285554671986613</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6281685655923722</v>
+        <v>0.6759241876424902</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2453041814299137</v>
+        <v>0.234510210415177</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1951167986265389</v>
+        <v>0.2109124393727115</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6404972194213528</v>
+        <v>0.6626548614319973</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5102328930785092</v>
+        <v>0.5068559701870257</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5004369518600893</v>
+        <v>0.5095785323492601</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5735282312745207</v>
+        <v>0.5466856543369815</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3692618019559414</v>
+        <v>0.3493431840008966</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.314411509903157</v>
+        <v>0.3286639461545252</v>
       </c>
     </row>
     <row r="46">
@@ -2158,7 +2158,7 @@
         <v>2.131788355976666</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>4.733515910860969</v>
+        <v>4.733515910860972</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.312861417624008</v>
+        <v>1.356389308387942</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.1991299112974944</v>
+        <v>-0.2918265902993695</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.987353698849347</v>
+        <v>2.902546068665935</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.581913137089576</v>
+        <v>3.433437335485207</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.322495670377043</v>
+        <v>1.353768651011506</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>3.441777630961504</v>
+        <v>3.40014121278125</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.877035447483396</v>
+        <v>2.860834165550661</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.9660367398967165</v>
+        <v>0.9633929627433295</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.641381088409886</v>
+        <v>3.583043367426519</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.410131578451451</v>
+        <v>4.282730172946343</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.468775337920551</v>
+        <v>2.390158734709676</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.823529862799194</v>
+        <v>5.803008890322943</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.170334223513415</v>
+        <v>6.977270391050823</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.88264124196029</v>
+        <v>4.806371108611677</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.711949800552603</v>
+        <v>6.688823837256379</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.278007638586567</v>
+        <v>5.304018898083564</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.292338010231649</v>
+        <v>3.316455352331402</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.827293104193128</v>
+        <v>5.80642552845195</v>
       </c>
     </row>
     <row r="49">
@@ -2263,7 +2263,7 @@
         <v>0.1864212891623719</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.4139379671060365</v>
+        <v>0.4139379671060368</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1518164549986115</v>
+        <v>0.153440571645071</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.0175724604878283</v>
+        <v>-0.03210130236119324</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3365398824026801</v>
+        <v>0.3248091647423482</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2298021872894745</v>
+        <v>0.2195269813755923</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08417585769512149</v>
+        <v>0.08718654865228144</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2243131599101991</v>
+        <v>0.2153671266864978</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2429293634755836</v>
+        <v>0.2408725805720554</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.07887147745810839</v>
+        <v>0.08759436273838976</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.3022607009537837</v>
+        <v>0.2940622021880599</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5994865720464507</v>
+        <v>0.5581800779042283</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3352056330683315</v>
+        <v>0.3146615297470546</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7789778253870611</v>
+        <v>0.7773039792603575</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.53006127325895</v>
+        <v>0.4967804807133045</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3498768141588207</v>
+        <v>0.3511432757762561</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5008642726156917</v>
+        <v>0.4856509477691817</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4835586128483259</v>
+        <v>0.4934430401227832</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2977225038998929</v>
+        <v>0.3097485445346783</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5322972460472104</v>
+        <v>0.535311866910643</v>
       </c>
     </row>
     <row r="52">
